--- a/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed.xlsx
+++ b/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed.xlsx
@@ -447,8 +447,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="78" customWidth="1" min="1" max="1"/>
-    <col width="81" customWidth="1" min="2" max="2"/>
-    <col width="81" customWidth="1" min="3" max="3"/>
+    <col width="70" customWidth="1" min="2" max="2"/>
+    <col width="70" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="38" customWidth="1" min="6" max="6"/>
@@ -466,24 +466,24 @@
     <col width="48" customWidth="1" min="18" max="18"/>
     <col width="9" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="44" customWidth="1" min="21" max="21"/>
-    <col width="46" customWidth="1" min="22" max="22"/>
-    <col width="30" customWidth="1" min="23" max="23"/>
-    <col width="32" customWidth="1" min="24" max="24"/>
-    <col width="31" customWidth="1" min="25" max="25"/>
-    <col width="33" customWidth="1" min="26" max="26"/>
-    <col width="34" customWidth="1" min="27" max="27"/>
-    <col width="36" customWidth="1" min="28" max="28"/>
-    <col width="31" customWidth="1" min="29" max="29"/>
-    <col width="33" customWidth="1" min="30" max="30"/>
-    <col width="35" customWidth="1" min="31" max="31"/>
-    <col width="37" customWidth="1" min="32" max="32"/>
-    <col width="42" customWidth="1" min="33" max="33"/>
-    <col width="44" customWidth="1" min="34" max="34"/>
-    <col width="32" customWidth="1" min="35" max="35"/>
-    <col width="34" customWidth="1" min="36" max="36"/>
-    <col width="29" customWidth="1" min="37" max="37"/>
-    <col width="31" customWidth="1" min="38" max="38"/>
+    <col width="35" customWidth="1" min="21" max="21"/>
+    <col width="37" customWidth="1" min="22" max="22"/>
+    <col width="42" customWidth="1" min="23" max="23"/>
+    <col width="44" customWidth="1" min="24" max="24"/>
+    <col width="32" customWidth="1" min="25" max="25"/>
+    <col width="34" customWidth="1" min="26" max="26"/>
+    <col width="29" customWidth="1" min="27" max="27"/>
+    <col width="31" customWidth="1" min="28" max="28"/>
+    <col width="38" customWidth="1" min="29" max="29"/>
+    <col width="40" customWidth="1" min="30" max="30"/>
+    <col width="24" customWidth="1" min="31" max="31"/>
+    <col width="26" customWidth="1" min="32" max="32"/>
+    <col width="25" customWidth="1" min="33" max="33"/>
+    <col width="27" customWidth="1" min="34" max="34"/>
+    <col width="28" customWidth="1" min="35" max="35"/>
+    <col width="30" customWidth="1" min="36" max="36"/>
+    <col width="25" customWidth="1" min="37" max="37"/>
+    <col width="27" customWidth="1" min="38" max="38"/>
     <col width="40" customWidth="1" min="39" max="39"/>
     <col width="30" customWidth="1" min="40" max="40"/>
     <col width="27" customWidth="1" min="41" max="41"/>
@@ -601,92 +601,92 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_internalRoleLinkName</t>
+          <t>link_executionLinks_executions_id</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_internalRoleLinkName_1</t>
+          <t>link_executionLinks_executions_id_1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_job_id</t>
+          <t>link_executionLinks_internalRoleLinkName</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_job_id_1</t>
+          <t>link_executionLinks_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_plan_id</t>
+          <t>link_executionLinks_project_id</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_plan_id_1</t>
+          <t>link_executionLinks_project_id_1</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_project_id</t>
+          <t>link_executionLinks_team_id</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_project_id_1</t>
+          <t>link_executionLinks_team_id_1</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_team_id</t>
+          <t>link_jobDetails_internalRoleLinkName</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_team_id_1</t>
+          <t>link_jobDetails_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_executions_id</t>
+          <t>link_jobDetails_job_id</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_executions_id_1</t>
+          <t>link_jobDetails_job_id_1</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_internalRoleLinkName</t>
+          <t>link_jobDetails_plan_id</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_internalRoleLinkName_1</t>
+          <t>link_jobDetails_plan_id_1</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_project_id</t>
+          <t>link_jobDetails_project_id</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_project_id_1</t>
+          <t>link_jobDetails_project_id_1</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_team_id</t>
+          <t>link_jobDetails_team_id</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_team_id_1</t>
+          <t>link_jobDetails_team_id_1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleAndRunTestExecution-test-data</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleAndRunTestExecution-test-data</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -853,72 +853,72 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>837097</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>837132</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>1588984</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>1588984</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>1570311</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1570311</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed.xlsx
+++ b/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed.xlsx
@@ -447,23 +447,23 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="78" customWidth="1" min="1" max="1"/>
-    <col width="66" customWidth="1" min="2" max="2"/>
-    <col width="66" customWidth="1" min="3" max="3"/>
-    <col width="44" customWidth="1" min="4" max="4"/>
-    <col width="46" customWidth="1" min="5" max="5"/>
-    <col width="47" customWidth="1" min="6" max="6"/>
-    <col width="46" customWidth="1" min="7" max="7"/>
-    <col width="46" customWidth="1" min="8" max="8"/>
-    <col width="46" customWidth="1" min="9" max="9"/>
-    <col width="46" customWidth="1" min="10" max="10"/>
-    <col width="46" customWidth="1" min="11" max="11"/>
-    <col width="46" customWidth="1" min="12" max="12"/>
-    <col width="46" customWidth="1" min="13" max="13"/>
-    <col width="46" customWidth="1" min="14" max="14"/>
+    <col width="81" customWidth="1" min="2" max="2"/>
+    <col width="81" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="38" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="37" customWidth="1" min="8" max="8"/>
+    <col width="37" customWidth="1" min="9" max="9"/>
+    <col width="37" customWidth="1" min="10" max="10"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="37" customWidth="1" min="12" max="12"/>
+    <col width="37" customWidth="1" min="13" max="13"/>
+    <col width="37" customWidth="1" min="14" max="14"/>
     <col width="112" customWidth="1" min="15" max="15"/>
-    <col width="47" customWidth="1" min="16" max="16"/>
-    <col width="49" customWidth="1" min="17" max="17"/>
-    <col width="49" customWidth="1" min="18" max="18"/>
+    <col width="46" customWidth="1" min="16" max="16"/>
+    <col width="48" customWidth="1" min="17" max="17"/>
+    <col width="48" customWidth="1" min="18" max="18"/>
     <col width="9" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="44" customWidth="1" min="21" max="21"/>
@@ -476,32 +476,32 @@
     <col width="36" customWidth="1" min="28" max="28"/>
     <col width="31" customWidth="1" min="29" max="29"/>
     <col width="33" customWidth="1" min="30" max="30"/>
-    <col width="40" customWidth="1" min="31" max="31"/>
-    <col width="42" customWidth="1" min="32" max="32"/>
-    <col width="47" customWidth="1" min="33" max="33"/>
-    <col width="49" customWidth="1" min="34" max="34"/>
-    <col width="37" customWidth="1" min="35" max="35"/>
-    <col width="39" customWidth="1" min="36" max="36"/>
-    <col width="34" customWidth="1" min="37" max="37"/>
-    <col width="36" customWidth="1" min="38" max="38"/>
-    <col width="45" customWidth="1" min="39" max="39"/>
-    <col width="35" customWidth="1" min="40" max="40"/>
-    <col width="32" customWidth="1" min="41" max="41"/>
-    <col width="40" customWidth="1" min="42" max="42"/>
-    <col width="35" customWidth="1" min="43" max="43"/>
-    <col width="32" customWidth="1" min="44" max="44"/>
-    <col width="34" customWidth="1" min="45" max="45"/>
-    <col width="35" customWidth="1" min="46" max="46"/>
-    <col width="37" customWidth="1" min="47" max="47"/>
-    <col width="32" customWidth="1" min="48" max="48"/>
-    <col width="34" customWidth="1" min="49" max="49"/>
+    <col width="35" customWidth="1" min="31" max="31"/>
+    <col width="37" customWidth="1" min="32" max="32"/>
+    <col width="42" customWidth="1" min="33" max="33"/>
+    <col width="44" customWidth="1" min="34" max="34"/>
+    <col width="32" customWidth="1" min="35" max="35"/>
+    <col width="34" customWidth="1" min="36" max="36"/>
+    <col width="29" customWidth="1" min="37" max="37"/>
+    <col width="31" customWidth="1" min="38" max="38"/>
+    <col width="40" customWidth="1" min="39" max="39"/>
+    <col width="30" customWidth="1" min="40" max="40"/>
+    <col width="27" customWidth="1" min="41" max="41"/>
+    <col width="35" customWidth="1" min="42" max="42"/>
+    <col width="30" customWidth="1" min="43" max="43"/>
+    <col width="27" customWidth="1" min="44" max="44"/>
+    <col width="29" customWidth="1" min="45" max="45"/>
+    <col width="30" customWidth="1" min="46" max="46"/>
+    <col width="32" customWidth="1" min="47" max="47"/>
+    <col width="27" customWidth="1" min="48" max="48"/>
+    <col width="29" customWidth="1" min="49" max="49"/>
     <col width="33" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>button_closeActions_class</t>
+          <t>button_alertActions_class</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -516,57 +516,57 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName</t>
+          <t>div_testRuns_internalRoleCellName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName_1</t>
+          <t>div_testRuns_internalRoleCellName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName_10</t>
+          <t>div_testRuns_internalRoleCellName_10</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName_2</t>
+          <t>div_testRuns_internalRoleCellName_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName_3</t>
+          <t>div_testRuns_internalRoleCellName_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName_4</t>
+          <t>div_testRuns_internalRoleCellName_4</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName_5</t>
+          <t>div_testRuns_internalRoleCellName_5</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName_6</t>
+          <t>div_testRuns_internalRoleCellName_6</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName_7</t>
+          <t>div_testRuns_internalRoleCellName_7</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName_8</t>
+          <t>div_testRuns_internalRoleCellName_8</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>div_testRunComponents_internalRoleCellName_9</t>
+          <t>div_testRuns_internalRoleCellName_9</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>header_testRunDetails_internalRoleHeadingName</t>
+          <t>header_testRunTitles_internalRoleHeadingName</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>header_testRunDetails_internalRoleHeadingName_1</t>
+          <t>header_testRunTitles_internalRoleHeadingName_1</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>header_testRunDetails_internalRoleHeadingName_2</t>
+          <t>header_testRunTitles_internalRoleHeadingName_2</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -651,97 +651,97 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>link_executionNavigation_executions_id</t>
+          <t>link_executionLinks_executions_id</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>link_executionNavigation_executions_id_1</t>
+          <t>link_executionLinks_executions_id_1</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>link_executionNavigation_internalRoleLinkName</t>
+          <t>link_executionLinks_internalRoleLinkName</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>link_executionNavigation_internalRoleLinkName_1</t>
+          <t>link_executionLinks_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>link_executionNavigation_project_id</t>
+          <t>link_executionLinks_project_id</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>link_executionNavigation_project_id_1</t>
+          <t>link_executionLinks_project_id_1</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>link_executionNavigation_team_id</t>
+          <t>link_executionLinks_team_id</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>link_executionNavigation_team_id_1</t>
+          <t>link_executionLinks_team_id_1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_internalRoleLinkName</t>
+          <t>link_projectLinks_internalRoleLinkName</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_project_id</t>
+          <t>link_projectLinks_project_id</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_team_id</t>
+          <t>link_projectLinks_team_id</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_test_project_id</t>
+          <t>link_projectLinks_test_project_id</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>link_projectNavigation_trNthChild</t>
+          <t>link_projectLinks_trNthChild</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_plan_id</t>
+          <t>link_testRunLinks_plan_id</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_plan_id_1</t>
+          <t>link_testRunLinks_plan_id_1</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_project_id</t>
+          <t>link_testRunLinks_project_id</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_project_id_1</t>
+          <t>link_testRunLinks_project_id_1</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_team_id</t>
+          <t>link_testRunLinks_team_id</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunNavigation_team_id_1</t>
+          <t>link_testRunLinks_team_id_1</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleAndRunTestSuite-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleAndRunTestSuite-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed.xlsx
+++ b/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed.xlsx
@@ -447,8 +447,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="78" customWidth="1" min="1" max="1"/>
-    <col width="81" customWidth="1" min="2" max="2"/>
-    <col width="81" customWidth="1" min="3" max="3"/>
+    <col width="85" customWidth="1" min="2" max="2"/>
+    <col width="85" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="38" customWidth="1" min="6" max="6"/>
@@ -466,24 +466,24 @@
     <col width="48" customWidth="1" min="18" max="18"/>
     <col width="9" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="44" customWidth="1" min="21" max="21"/>
-    <col width="46" customWidth="1" min="22" max="22"/>
-    <col width="30" customWidth="1" min="23" max="23"/>
-    <col width="32" customWidth="1" min="24" max="24"/>
-    <col width="31" customWidth="1" min="25" max="25"/>
-    <col width="33" customWidth="1" min="26" max="26"/>
-    <col width="34" customWidth="1" min="27" max="27"/>
-    <col width="36" customWidth="1" min="28" max="28"/>
-    <col width="31" customWidth="1" min="29" max="29"/>
-    <col width="33" customWidth="1" min="30" max="30"/>
-    <col width="35" customWidth="1" min="31" max="31"/>
-    <col width="37" customWidth="1" min="32" max="32"/>
-    <col width="42" customWidth="1" min="33" max="33"/>
-    <col width="44" customWidth="1" min="34" max="34"/>
-    <col width="32" customWidth="1" min="35" max="35"/>
-    <col width="34" customWidth="1" min="36" max="36"/>
-    <col width="29" customWidth="1" min="37" max="37"/>
-    <col width="31" customWidth="1" min="38" max="38"/>
+    <col width="35" customWidth="1" min="21" max="21"/>
+    <col width="37" customWidth="1" min="22" max="22"/>
+    <col width="42" customWidth="1" min="23" max="23"/>
+    <col width="44" customWidth="1" min="24" max="24"/>
+    <col width="32" customWidth="1" min="25" max="25"/>
+    <col width="34" customWidth="1" min="26" max="26"/>
+    <col width="29" customWidth="1" min="27" max="27"/>
+    <col width="31" customWidth="1" min="28" max="28"/>
+    <col width="38" customWidth="1" min="29" max="29"/>
+    <col width="40" customWidth="1" min="30" max="30"/>
+    <col width="24" customWidth="1" min="31" max="31"/>
+    <col width="26" customWidth="1" min="32" max="32"/>
+    <col width="25" customWidth="1" min="33" max="33"/>
+    <col width="27" customWidth="1" min="34" max="34"/>
+    <col width="28" customWidth="1" min="35" max="35"/>
+    <col width="30" customWidth="1" min="36" max="36"/>
+    <col width="25" customWidth="1" min="37" max="37"/>
+    <col width="27" customWidth="1" min="38" max="38"/>
     <col width="40" customWidth="1" min="39" max="39"/>
     <col width="30" customWidth="1" min="40" max="40"/>
     <col width="27" customWidth="1" min="41" max="41"/>
@@ -495,13 +495,13 @@
     <col width="32" customWidth="1" min="47" max="47"/>
     <col width="27" customWidth="1" min="48" max="48"/>
     <col width="29" customWidth="1" min="49" max="49"/>
-    <col width="33" customWidth="1" min="50" max="50"/>
+    <col width="26" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>button_alertActions_class</t>
+          <t>button_closeActions_class</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -601,92 +601,92 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_internalRoleLinkName</t>
+          <t>link_executionLinks_executions_id</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_internalRoleLinkName_1</t>
+          <t>link_executionLinks_executions_id_1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_job_id</t>
+          <t>link_executionLinks_internalRoleLinkName</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_job_id_1</t>
+          <t>link_executionLinks_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_plan_id</t>
+          <t>link_executionLinks_project_id</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_plan_id_1</t>
+          <t>link_executionLinks_project_id_1</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_project_id</t>
+          <t>link_executionLinks_team_id</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_project_id_1</t>
+          <t>link_executionLinks_team_id_1</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_team_id</t>
+          <t>link_jobDetails_internalRoleLinkName</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_team_id_1</t>
+          <t>link_jobDetails_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_executions_id</t>
+          <t>link_jobDetails_job_id</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_executions_id_1</t>
+          <t>link_jobDetails_job_id_1</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_internalRoleLinkName</t>
+          <t>link_jobDetails_plan_id</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_internalRoleLinkName_1</t>
+          <t>link_jobDetails_plan_id_1</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_project_id</t>
+          <t>link_jobDetails_project_id</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_project_id_1</t>
+          <t>link_jobDetails_project_id_1</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_team_id</t>
+          <t>link_jobDetails_team_id</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>link_executionLinks_team_id_1</t>
+          <t>link_jobDetails_team_id_1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>span_logItemComponents_nthChild</t>
+          <t>span_logContent_nthChild</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleAndRunTestWithEnvironmentSelection-test-data</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleAndRunTestWithEnvironmentSelection-test-data</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -853,72 +853,72 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>837097</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>837132</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>1588984</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>1588984</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>1570311</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1570311</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed.xlsx
+++ b/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed.xlsx
@@ -447,43 +447,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="78" customWidth="1" min="1" max="1"/>
-    <col width="85" customWidth="1" min="2" max="2"/>
-    <col width="85" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="38" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="37" customWidth="1" min="8" max="8"/>
-    <col width="37" customWidth="1" min="9" max="9"/>
-    <col width="37" customWidth="1" min="10" max="10"/>
-    <col width="37" customWidth="1" min="11" max="11"/>
-    <col width="37" customWidth="1" min="12" max="12"/>
-    <col width="37" customWidth="1" min="13" max="13"/>
-    <col width="37" customWidth="1" min="14" max="14"/>
+    <col width="81" customWidth="1" min="2" max="2"/>
+    <col width="81" customWidth="1" min="3" max="3"/>
+    <col width="41" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="5" max="5"/>
+    <col width="44" customWidth="1" min="6" max="6"/>
+    <col width="43" customWidth="1" min="7" max="7"/>
+    <col width="43" customWidth="1" min="8" max="8"/>
+    <col width="43" customWidth="1" min="9" max="9"/>
+    <col width="43" customWidth="1" min="10" max="10"/>
+    <col width="43" customWidth="1" min="11" max="11"/>
+    <col width="43" customWidth="1" min="12" max="12"/>
+    <col width="43" customWidth="1" min="13" max="13"/>
+    <col width="43" customWidth="1" min="14" max="14"/>
     <col width="112" customWidth="1" min="15" max="15"/>
     <col width="46" customWidth="1" min="16" max="16"/>
     <col width="48" customWidth="1" min="17" max="17"/>
     <col width="48" customWidth="1" min="18" max="18"/>
     <col width="9" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="35" customWidth="1" min="21" max="21"/>
-    <col width="37" customWidth="1" min="22" max="22"/>
-    <col width="42" customWidth="1" min="23" max="23"/>
-    <col width="44" customWidth="1" min="24" max="24"/>
-    <col width="32" customWidth="1" min="25" max="25"/>
-    <col width="34" customWidth="1" min="26" max="26"/>
-    <col width="29" customWidth="1" min="27" max="27"/>
-    <col width="31" customWidth="1" min="28" max="28"/>
-    <col width="38" customWidth="1" min="29" max="29"/>
-    <col width="40" customWidth="1" min="30" max="30"/>
-    <col width="24" customWidth="1" min="31" max="31"/>
-    <col width="26" customWidth="1" min="32" max="32"/>
-    <col width="25" customWidth="1" min="33" max="33"/>
-    <col width="27" customWidth="1" min="34" max="34"/>
-    <col width="28" customWidth="1" min="35" max="35"/>
-    <col width="30" customWidth="1" min="36" max="36"/>
-    <col width="25" customWidth="1" min="37" max="37"/>
-    <col width="27" customWidth="1" min="38" max="38"/>
+    <col width="44" customWidth="1" min="21" max="21"/>
+    <col width="46" customWidth="1" min="22" max="22"/>
+    <col width="30" customWidth="1" min="23" max="23"/>
+    <col width="32" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="33" customWidth="1" min="26" max="26"/>
+    <col width="34" customWidth="1" min="27" max="27"/>
+    <col width="36" customWidth="1" min="28" max="28"/>
+    <col width="31" customWidth="1" min="29" max="29"/>
+    <col width="33" customWidth="1" min="30" max="30"/>
+    <col width="35" customWidth="1" min="31" max="31"/>
+    <col width="37" customWidth="1" min="32" max="32"/>
+    <col width="42" customWidth="1" min="33" max="33"/>
+    <col width="44" customWidth="1" min="34" max="34"/>
+    <col width="32" customWidth="1" min="35" max="35"/>
+    <col width="34" customWidth="1" min="36" max="36"/>
+    <col width="29" customWidth="1" min="37" max="37"/>
+    <col width="31" customWidth="1" min="38" max="38"/>
     <col width="40" customWidth="1" min="39" max="39"/>
     <col width="30" customWidth="1" min="40" max="40"/>
     <col width="27" customWidth="1" min="41" max="41"/>
@@ -516,62 +516,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName</t>
+          <t>div_testRunDetails_internalRoleCellName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_1</t>
+          <t>div_testRunDetails_internalRoleCellName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_10</t>
+          <t>div_testRunDetails_internalRoleCellName_10</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_2</t>
+          <t>div_testRunDetails_internalRoleCellName_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_3</t>
+          <t>div_testRunDetails_internalRoleCellName_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_4</t>
+          <t>div_testRunDetails_internalRoleCellName_4</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_5</t>
+          <t>div_testRunDetails_internalRoleCellName_5</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_6</t>
+          <t>div_testRunDetails_internalRoleCellName_6</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_7</t>
+          <t>div_testRunDetails_internalRoleCellName_7</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_8</t>
+          <t>div_testRunDetails_internalRoleCellName_8</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_9</t>
+          <t>div_testRunDetails_internalRoleCellName_9</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>div_thumbnailImage_class</t>
+          <t>div_thumbnailImages_class</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -601,92 +601,92 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>link_executionDetails_internalRoleLinkName</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionDetails_internalRoleLinkName_1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionDetails_job_id</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionDetails_job_id_1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionDetails_plan_id</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionDetails_plan_id_1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionDetails_project_id</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionDetails_project_id_1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionDetails_team_id</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionDetails_team_id_1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>link_executionLinks_executions_id</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>link_executionLinks_executions_id_1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>link_executionLinks_internalRoleLinkName</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>link_executionLinks_internalRoleLinkName_1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>link_executionLinks_project_id</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>link_executionLinks_project_id_1</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>link_executionLinks_team_id</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>link_executionLinks_team_id_1</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>link_jobDetails_internalRoleLinkName</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>link_jobDetails_internalRoleLinkName_1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>link_jobDetails_job_id</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>link_jobDetails_job_id_1</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>link_jobDetails_plan_id</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>link_jobDetails_plan_id_1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>link_jobDetails_project_id</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>link_jobDetails_project_id_1</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>link_jobDetails_team_id</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>link_jobDetails_team_id_1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleAndRunTestWithEnvironmentSelection-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleAndRunTestWithEnvironmentSelection-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -853,72 +853,72 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>837097</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>837132</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1588984</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>1588984</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>1570311</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>1570311</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>837097</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>837132</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed.xlsx
+++ b/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,18 +446,524 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="78" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="41" customWidth="1" min="3" max="3"/>
+    <col width="42" customWidth="1" min="4" max="4"/>
+    <col width="41" customWidth="1" min="5" max="5"/>
+    <col width="41" customWidth="1" min="6" max="6"/>
+    <col width="41" customWidth="1" min="7" max="7"/>
+    <col width="41" customWidth="1" min="8" max="8"/>
+    <col width="41" customWidth="1" min="9" max="9"/>
+    <col width="41" customWidth="1" min="10" max="10"/>
+    <col width="41" customWidth="1" min="11" max="11"/>
+    <col width="41" customWidth="1" min="12" max="12"/>
+    <col width="112" customWidth="1" min="13" max="13"/>
+    <col width="40" customWidth="1" min="14" max="14"/>
+    <col width="42" customWidth="1" min="15" max="15"/>
+    <col width="42" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="35" customWidth="1" min="18" max="18"/>
+    <col width="37" customWidth="1" min="19" max="19"/>
+    <col width="42" customWidth="1" min="20" max="20"/>
+    <col width="44" customWidth="1" min="21" max="21"/>
+    <col width="32" customWidth="1" min="22" max="22"/>
+    <col width="34" customWidth="1" min="23" max="23"/>
+    <col width="29" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="36" customWidth="1" min="26" max="26"/>
+    <col width="38" customWidth="1" min="27" max="27"/>
+    <col width="22" customWidth="1" min="28" max="28"/>
+    <col width="24" customWidth="1" min="29" max="29"/>
+    <col width="23" customWidth="1" min="30" max="30"/>
+    <col width="25" customWidth="1" min="31" max="31"/>
+    <col width="26" customWidth="1" min="32" max="32"/>
+    <col width="28" customWidth="1" min="33" max="33"/>
+    <col width="23" customWidth="1" min="34" max="34"/>
+    <col width="25" customWidth="1" min="35" max="35"/>
+    <col width="39" customWidth="1" min="36" max="36"/>
+    <col width="29" customWidth="1" min="37" max="37"/>
+    <col width="26" customWidth="1" min="38" max="38"/>
+    <col width="34" customWidth="1" min="39" max="39"/>
+    <col width="29" customWidth="1" min="40" max="40"/>
+    <col width="22" customWidth="1" min="41" max="41"/>
+    <col width="24" customWidth="1" min="42" max="42"/>
+    <col width="25" customWidth="1" min="43" max="43"/>
+    <col width="27" customWidth="1" min="44" max="44"/>
+    <col width="22" customWidth="1" min="45" max="45"/>
+    <col width="24" customWidth="1" min="46" max="46"/>
+    <col width="23" customWidth="1" min="47" max="47"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>button_closeAlert_class</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName_10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName_3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName_4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName_5</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName_6</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName_7</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName_8</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>div_testRunCells_internalRoleCellName_9</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>div_thumbnailImage_class</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>header_testRun_internalRoleHeadingName</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>header_testRun_internalRoleHeadingName_1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>header_testRun_internalRoleHeadingName_2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>input_Name</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionLinks_executions_id</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionLinks_executions_id_1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionLinks_internalRoleLinkName</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionLinks_internalRoleLinkName_1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionLinks_project_id</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionLinks_project_id_1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionLinks_team_id</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>link_executionLinks_team_id_1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>link_jobLinks_internalRoleLinkName</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>link_jobLinks_internalRoleLinkName_1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>link_jobLinks_job_id</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>link_jobLinks_job_id_1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>link_jobLinks_plan_id</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>link_jobLinks_plan_id_1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>link_jobLinks_project_id</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>link_jobLinks_project_id_1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>link_jobLinks_team_id</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>link_jobLinks_team_id_1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>link_testProject_internalRoleLinkName</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>link_testProject_project_id</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>link_testProject_team_id</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>link_testProject_test_project_id</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>link_testProject_trNthChild</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>link_testRun_plan_id</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>link_testRun_plan_id_1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>link_testRun_project_id</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>link_testRun_project_id_1</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>link_testRun_team_id</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>link_testRun_team_id_1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>span_logItem_nthChild</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MuiButtonBase-root\ MuiIconButton-root\ MuiIconButton-sizeSmall\ css-1fubc2b</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t> Untitled Test Run #10 2024-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t> Untitled Test Run #11 2024-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> edge open 1040 ss test #12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t> Untitled Test Run #10 2024-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t> Untitled Test Run #10 2024-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t> Untitled Test Run #10 2024-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t> Untitled Test Run #11 2024-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t> Untitled Test Run #11 2024-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t> Untitled Test Run #11 2024-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t> edge open 1040 ss test #12</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t> edge open 1040 ss test #12</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>col-4\ gallery-item"]:nth-child(1) [class="thumbnail__image\ d-flex\ justify-content-between\ flex-row-reverse</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Untitled Test Run #11</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Untitled Test Run #11</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>edge open 1040 ss test #</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>837097</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>837132</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Katalon%20testing</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>1607892</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>837097</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>837132</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>1588984</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>1570311</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
